--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/55_Malatya_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/55_Malatya_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73E22C44-3921-48A9-9C4A-AEF7A9AF0540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69F70C40-1F43-4438-8ADF-A1DFF68D5424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{82A7F1A6-5770-452E-B60B-8FCE9E464AC3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{3726671D-EF06-4AB3-9D2A-84732CA38324}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -905,14 +905,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{A2D38834-706F-4E43-9AA0-DDF86E667EF8}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{1AE66FEE-A6FA-43E4-B743-E9017D88703A}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{2225CC80-2D94-445C-B785-CA58DEF4067C}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{FDA8AF5B-E5E2-4A41-BBA0-93E68473CE68}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{86495974-2E85-4436-B751-D7567D0CEB34}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{38CFB7DC-3DCE-4067-8FE0-315FABC94223}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{1D77F48C-201E-4B71-89DF-C0C1753AAA3D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{79E283FE-C806-4C27-88E4-88477D2BFF1B}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{486AED70-8C9B-495F-945F-583B132BD164}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{E44E2B0B-F1D6-47D8-85EB-D553EB045E9E}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{0C19F841-1222-47DF-B24C-47B59A61D1D6}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{7891BFD9-E39F-47FD-ABFF-C46F8065343E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{07C89E73-9353-4965-9DB0-D5DF29FDF068}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D0855663-E1E2-4324-B0AE-5DDB0EBDA3FB}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{52532A1F-FC50-4A96-B61F-E333AD7C085F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{7B331C5A-A176-4BC5-9D8D-2BAFFCC9C6BC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1282,7 +1282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6457CBDC-B147-4953-B983-891FE540E1F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACA5AF3-7933-40A6-9590-D55F14C9128A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2557,7 +2557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4847640C-CAD2-4D27-AD79-69294D915A8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B00213-A50C-4CFC-86E1-F3A9304AC2E5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3818,7 +3818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F42781E-BF6E-4918-A155-CFD31603E39B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB447A4A-EE72-4A47-A086-63134751DBCA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5077,7 +5077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4920D3E9-D962-4ACE-815C-24F9CA32E26E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F539736-496F-4011-9CFA-F7B60C187A58}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6328,7 +6328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B724194-E9EA-4D81-9C27-7DCD483520F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3151283B-DDDA-4ADD-8CB6-7651FFFE3F6D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7599,7 +7599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BF8BC8-3CD8-40C4-8225-DA89CD47F3D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7FB78C-8BA2-4C54-87D2-943D9EA1F707}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8870,7 +8870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E13BC7-94FE-4679-B27D-BCEE7E73C8EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1D3D86-641F-4490-AB33-59C56517635C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10133,7 +10133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD34EFA-2953-4CC3-9321-134E11307E80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0890959A-C201-491A-AAB2-1A3D3F8D066D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11392,7 +11392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64F03F5-7E93-4F2A-8967-322CEEE83CC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8132C9A1-C4C7-42AF-89C5-AD4F3D9CCED9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12657,7 +12657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4737A116-A800-4119-8D7B-710939052087}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A11EFD2-E826-456B-965F-D480F8CFC08B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13918,7 +13918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E100B12-B38C-4339-B77D-9418A1D5C554}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9357532E-CAC5-4ACC-8BAF-7E2F884E542E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15173,7 +15173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82271D91-BB3A-46BD-8FCB-08D3FB52F14A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945B68E8-013F-4692-9D91-5B105E1E30DA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
